--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/44_Karaman_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/44_Karaman_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58A21D71-2DE1-4E8E-9A6B-9680DFC6D463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF212D0F-3EED-4946-BF64-663FDEEABB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{29194B3B-293B-47EB-91AB-CABC4D1BE2FC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{4A280689-CBF6-4496-9923-EBFFA22B4E0D}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -930,14 +930,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{F6EC135D-E116-4FCD-96F2-8FF628029F93}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{0091851B-7D7E-4E29-8773-ED078978E7C1}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{31BA1FEF-A566-4A70-8115-80400E60BC88}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{B3DC6454-97F5-4BB1-896C-9ED12D1B93DC}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{76EBACA5-59FD-492A-B766-E46943E069F8}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{A28217D7-09D4-49FB-96B8-5E0228DD8B3B}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{6F195B25-06DE-4595-9EC3-D1C35367E311}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{C9691923-F3ED-45B5-9421-E2CAEF13149F}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{32D1E100-E4A8-46FD-A12C-176EE075A659}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{F8CC4031-FD17-4E22-A537-8509534AE99B}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{6B389878-2232-418B-AFFE-CD50CDE1B7D3}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{578AE6DA-F6B1-4D22-9CBE-FBDE2DC3B42B}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{0A3F30B4-26A6-4EFA-B4AE-3E563741CA70}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{19567D59-6DCD-40D8-AFD8-BD490F915D01}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{DBABAC4D-5833-4B6D-8FDF-7FF86655F5A2}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{7F062932-E08C-46C3-8F89-68BEFDD31D8A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1307,7 +1307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B92DF4-AB4C-4924-801F-E97ECF47727D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00252C22-CA42-448D-A9ED-F888752734AF}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2573,7 +2573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50AAA5E-CA3B-4526-91C0-F0EA6F4EBC63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16383EC6-E0FF-4466-B6AC-7C95BD9C514C}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3796,7 +3796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8CA0B4-AEE1-461A-8A02-8610F4897408}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2656F3E7-C27B-4D74-B900-33A0AD3C29F9}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5007,7 +5007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91B8DB4-1297-48D4-945B-CBA58FA14D86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14DD60F8-6F4E-4A89-993D-A33D4DC1FAFE}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6200,7 +6200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7096FDFC-AB05-4B4F-8708-B700A64DD858}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98351EE-59BB-420C-9C68-047F6C7DAD5A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7465,7 +7465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A80BD4-0EE7-42A0-A807-2DF8DC78313F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F185FD28-9E49-40E3-B1B3-D3C47B60944D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8730,7 +8730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8EA527-3384-429B-9739-B1D0462BEAA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E9297C-7258-4603-BE14-EFE27AEDC455}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9995,7 +9995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5C0613-EDFD-41DD-9788-83BF9E6D4E82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4876A76B-B76A-4EE7-A422-B119B57F3C29}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11260,7 +11260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB53F3E0-DF5B-4094-8484-CB395F95F12B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23128EA8-C38A-4D21-9005-E9237E4C3698}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12523,7 +12523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8EEB6B5-BAE6-4197-9CF5-6EF09DD06BCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AFD7D4-C621-4E47-8FCD-69665A3A729D}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13770,7 +13770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4292AE46-1D9E-460C-90DA-C59927CFF561}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A732CC1-E5E0-401E-9352-FD1144A37038}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15013,7 +15013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5970BA7-25DC-4DCB-8500-843D6623A9BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66C4734-BC3F-4A81-8CA3-38FC977CDB7C}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
